--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2462441.37141314</v>
+        <v>2460189.291701933</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>92.72329049755919</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247899</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -795,7 +795,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494248</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>104.8337057272424</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>4.543542378765934</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>90.5051912188231</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316092</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>105.6685336178178</v>
       </c>
       <c r="W7" t="n">
-        <v>58.94788863247399</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091506</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>17.9329160875881</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>184.3755225607029</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.76895293959859</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.6605461321747</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.7084378797726</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127775</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796283</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794327</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.975386180642</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919562</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.37029594375</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>639.3706644025388</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="C4" t="n">
-        <v>470.4344814746319</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="D4" t="n">
-        <v>320.3178420622961</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="E4" t="n">
-        <v>172.404748479903</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="F4" t="n">
-        <v>172.404748479903</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962297</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>916.2975690719576</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025388</v>
+        <v>724.611684898784</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025388</v>
+        <v>502.84506946831</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025388</v>
+        <v>502.84506946831</v>
       </c>
       <c r="V4" t="n">
-        <v>639.3706644025388</v>
+        <v>248.1605812624232</v>
       </c>
       <c r="W4" t="n">
-        <v>639.3706644025388</v>
+        <v>248.1605812624232</v>
       </c>
       <c r="X4" t="n">
-        <v>639.3706644025388</v>
+        <v>248.1605812624232</v>
       </c>
       <c r="Y4" t="n">
-        <v>639.3706644025388</v>
+        <v>248.1605812624232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204827</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.6952191369613</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090544</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>541.953681701357</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>435.2177891581067</v>
       </c>
       <c r="W7" t="n">
-        <v>861.3436839672011</v>
+        <v>435.2177891581067</v>
       </c>
       <c r="X7" t="n">
-        <v>861.3436839672011</v>
+        <v>435.2177891581067</v>
       </c>
       <c r="Y7" t="n">
-        <v>861.3436839672011</v>
+        <v>214.4252100145766</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>3053.961288228877</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2701.192632958763</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>252.750018008651</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>252.750018008651</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>252.750018008651</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,10 +5057,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,16 +5826,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438176</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,22 +6601,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908939</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075654</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="9">
@@ -26314,40 +26314,40 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597546</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405238</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="J4" t="n">
         <v>14826.69604186738</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>14826.69604186731</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14826.69604186731</v>
+      </c>
+      <c r="M4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14826.69604186738</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14826.69604186737</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482183</v>
+        <v>-893968.0587482192</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793736</v>
+        <v>434776.686979374</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793738</v>
+        <v>434776.686979374</v>
       </c>
       <c r="E6" t="n">
-        <v>184176.9270866251</v>
+        <v>184142.1891611892</v>
       </c>
       <c r="F6" t="n">
-        <v>509589.3888939804</v>
+        <v>509554.6509685449</v>
       </c>
       <c r="G6" t="n">
-        <v>509589.3888939802</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="H6" t="n">
-        <v>509589.3888939801</v>
+        <v>509554.6509685445</v>
       </c>
       <c r="I6" t="n">
-        <v>509589.3888939802</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="J6" t="n">
-        <v>292058.1864967027</v>
+        <v>292023.4485712671</v>
       </c>
       <c r="K6" t="n">
-        <v>509589.3888939802</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="L6" t="n">
-        <v>509589.3888939801</v>
+        <v>509554.6509685449</v>
       </c>
       <c r="M6" t="n">
-        <v>424534.3609584682</v>
+        <v>424499.623033033</v>
       </c>
       <c r="N6" t="n">
-        <v>509589.3888939805</v>
+        <v>509554.6509685444</v>
       </c>
       <c r="O6" t="n">
-        <v>509589.3888939804</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="P6" t="n">
-        <v>509589.3888939802</v>
+        <v>509554.6509685445</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>272.5496012734484</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>61.19210253178585</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.38861029128135</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>274.7677005521845</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.6980706244444</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,19 +27828,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>146.4691097060102</v>
       </c>
       <c r="W7" t="n">
-        <v>227.575109704117</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943046953</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>309.8193423825468</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>34.20913079139186</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-4.551261486021622e-13</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32722,7 +32722,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
